--- a/unilabos/devices/workstation/bioyond_studio/bioyond_cell/2025092701.xlsx
+++ b/unilabos/devices/workstation/bioyond_studio/bioyond_cell/2025092701.xlsx
@@ -1,156 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ML\GitHub\Uni-Lab-OS\unilabos\devices\workstation\bioyond_cell\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C742E1CE-314B-4282-A3EE-33AF96088A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
     <sheet name="场景1 完成扣电and电导配液，以及部分单独软包配液" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
-  <si>
-    <t>算法批次</t>
-  </si>
-  <si>
-    <t>配方ID</t>
-  </si>
-  <si>
-    <t>创建日期</t>
-  </si>
-  <si>
-    <t>配液瓶类型</t>
-  </si>
-  <si>
-    <t>混匀时间(s)</t>
-  </si>
-  <si>
-    <t>扣电组装分液体积</t>
-  </si>
-  <si>
-    <t>软包组装分液体积</t>
-  </si>
-  <si>
-    <t>电导测试分液体积</t>
-  </si>
-  <si>
-    <t>电导测试分液瓶数</t>
-  </si>
-  <si>
-    <t>LiPF6(g)</t>
-  </si>
-  <si>
-    <t>LiDFOB(g)</t>
-  </si>
-  <si>
-    <t>DTD(g)</t>
-  </si>
-  <si>
-    <t>SA(g)</t>
-  </si>
-  <si>
-    <t>LiFSI(g)</t>
-  </si>
-  <si>
-    <t>LiPO2F2(g)</t>
-  </si>
-  <si>
-    <t>EC(g)</t>
-  </si>
-  <si>
-    <t>VC(g)</t>
-  </si>
-  <si>
-    <t>AND(g)</t>
-  </si>
-  <si>
-    <t>HTCN(g)</t>
-  </si>
-  <si>
-    <t>DENE(g)</t>
-  </si>
-  <si>
-    <t>TMSP(g)</t>
-  </si>
-  <si>
-    <t>TMSB(g)</t>
-  </si>
-  <si>
-    <t>EP(g)</t>
-  </si>
-  <si>
-    <t>DEC(g)</t>
-  </si>
-  <si>
-    <t>EMC(g)</t>
-  </si>
-  <si>
-    <t>SN(g)</t>
-  </si>
-  <si>
-    <t>DMC(g)</t>
-  </si>
-  <si>
-    <t>FEC(g)</t>
-  </si>
-  <si>
-    <t>DP20250927001</t>
-  </si>
-  <si>
-    <t>9/27/25</t>
-  </si>
-  <si>
-    <t>配液小瓶</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>TEST-02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -175,21 +65,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -514,187 +396,207 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AB3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.25" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1">
+      <c r="A1" t="str">
+        <v>算法批次</v>
+      </c>
+      <c r="B1" t="str">
+        <v>配方ID</v>
+      </c>
+      <c r="C1" t="str">
+        <v>创建日期</v>
+      </c>
+      <c r="D1" t="str">
+        <v>配液瓶类型</v>
+      </c>
+      <c r="E1" t="str">
+        <v>混匀时间(s)</v>
+      </c>
+      <c r="F1" t="str">
+        <v>扣电组装分液体积</v>
+      </c>
+      <c r="G1" t="str">
+        <v>软包组装分液体积</v>
+      </c>
+      <c r="H1" t="str">
+        <v>电导测试分液体积</v>
+      </c>
+      <c r="I1" t="str">
+        <v>电导测试分液瓶数</v>
+      </c>
+      <c r="J1" t="str">
+        <v>LiPF6(g)</v>
+      </c>
+      <c r="K1" t="str">
+        <v>LiDFOB(g)</v>
+      </c>
+      <c r="L1" t="str">
+        <v>DTD(g)</v>
+      </c>
+      <c r="M1" t="str">
+        <v>SA(g)</v>
+      </c>
+      <c r="N1" t="str">
+        <v>LiFSI(g)</v>
+      </c>
+      <c r="O1" t="str">
+        <v>LiPO2F2(g)</v>
+      </c>
+      <c r="P1" t="str">
+        <v>EC(g)</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>VC(g)</v>
+      </c>
+      <c r="R1" t="str">
+        <v>AND(g)</v>
+      </c>
+      <c r="S1" t="str">
+        <v>HTCN(g)</v>
+      </c>
+      <c r="T1" t="str">
+        <v>DENE(g)</v>
+      </c>
+      <c r="U1" t="str">
+        <v>TMSP(g)</v>
+      </c>
+      <c r="V1" t="str">
+        <v>TMSB(g)</v>
+      </c>
+      <c r="W1" t="str">
+        <v>EP(g)</v>
+      </c>
+      <c r="X1" t="str">
+        <v>DEC(g)</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>EMC(g)</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>SN(g)</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>DMC(g)</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>FEC(g)</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>TEST-02</v>
+      </c>
+      <c r="B2" t="str">
+        <v>DP20250927001</v>
+      </c>
+      <c r="C2" t="str">
+        <v>9/27/25</v>
+      </c>
+      <c r="D2" t="str">
+        <v>配液小瓶</v>
+      </c>
+      <c r="E2" t="str">
+        <v>60</v>
+      </c>
+      <c r="F2" t="str">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H2" t="str">
+        <v>0</v>
+      </c>
+      <c r="I2" t="str">
+        <v>0</v>
+      </c>
+      <c r="J2" t="str">
+        <v>0</v>
+      </c>
+      <c r="K2" t="str">
+        <v>0</v>
+      </c>
+      <c r="N2" t="str">
+        <v>0.3</v>
+      </c>
+      <c r="O2" t="str">
+        <v>0</v>
+      </c>
+      <c r="P2" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>0</v>
+      </c>
+      <c r="R2" t="str">
+        <v>0</v>
+      </c>
+      <c r="S2" t="str">
+        <v>0</v>
+      </c>
+      <c r="T2" t="str">
+        <v>0</v>
+      </c>
+      <c r="U2" t="str">
+        <v>0</v>
+      </c>
+      <c r="V2" t="str">
+        <v>0</v>
+      </c>
+      <c r="W2" t="str">
+        <v>0</v>
+      </c>
+      <c r="X2" t="str">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="str">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="str">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="str">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>27</v>
+      <c r="AB2" t="str">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W2" t="s">
-        <v>33</v>
-      </c>
-      <c r="X2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>TEST-02</v>
+      </c>
+      <c r="B3" t="str">
+        <v>DP20250927002</v>
+      </c>
+      <c r="C3" t="str">
+        <v>9/27/25</v>
+      </c>
+      <c r="D3" t="str">
+        <v>配液小瓶</v>
+      </c>
+      <c r="E3" t="str">
+        <v>60</v>
+      </c>
+      <c r="F3" t="str">
+        <v>2</v>
+      </c>
+      <c r="H3" t="str">
+        <v>0</v>
+      </c>
+      <c r="N3" t="str">
+        <v>0.25</v>
+      </c>
+      <c r="AA3" t="str">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:AB1 B2:AB2" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AB3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/unilabos/devices/workstation/bioyond_studio/bioyond_cell/2025092701.xlsx
+++ b/unilabos/devices/workstation/bioyond_studio/bioyond_cell/2025092701.xlsx
@@ -443,7 +443,7 @@
         <v>SA(g)</v>
       </c>
       <c r="N1" t="str">
-        <v>LiFSI(g)</v>
+        <v>LiNO3(g)</v>
       </c>
       <c r="O1" t="str">
         <v>LiPO2F2(g)</v>
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="str">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="O2" t="str">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="str">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AA3" t="str">
         <v>2</v>

--- a/unilabos/devices/workstation/bioyond_studio/bioyond_cell/2025092701.xlsx
+++ b/unilabos/devices/workstation/bioyond_studio/bioyond_cell/2025092701.xlsx
@@ -502,10 +502,10 @@
         <v>配液小瓶</v>
       </c>
       <c r="E2" t="str">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F2" t="str">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="H2" t="str">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="str">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K2" t="str">
         <v>0</v>
       </c>
       <c r="N2" t="str">
-        <v>0.1</v>
+        <v/>
       </c>
       <c r="O2" t="str">
         <v>0</v>
@@ -579,15 +579,15 @@
         <v>配液小瓶</v>
       </c>
       <c r="E3" t="str">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F3" t="str">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="H3" t="str">
         <v>0</v>
       </c>
-      <c r="N3" t="str">
+      <c r="J3" t="str">
         <v>0.15</v>
       </c>
       <c r="AA3" t="str">

--- a/unilabos/devices/workstation/bioyond_studio/bioyond_cell/2025092701.xlsx
+++ b/unilabos/devices/workstation/bioyond_studio/bioyond_cell/2025092701.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB3"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -502,7 +502,7 @@
         <v>配液小瓶</v>
       </c>
       <c r="E2" t="str">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F2" t="str">
         <v>0.1</v>
@@ -553,50 +553,21 @@
         <v>0</v>
       </c>
       <c r="Y2" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z2" t="str">
         <v>0</v>
       </c>
       <c r="AA2" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="str">
         <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>TEST-02</v>
-      </c>
-      <c r="B3" t="str">
-        <v>DP20250927002</v>
-      </c>
-      <c r="C3" t="str">
-        <v>9/27/25</v>
-      </c>
-      <c r="D3" t="str">
-        <v>配液小瓶</v>
-      </c>
-      <c r="E3" t="str">
-        <v>30</v>
-      </c>
-      <c r="F3" t="str">
-        <v>0.1</v>
-      </c>
-      <c r="H3" t="str">
-        <v>0</v>
-      </c>
-      <c r="J3" t="str">
-        <v>0.15</v>
-      </c>
-      <c r="AA3" t="str">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AB3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AB2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/unilabos/devices/workstation/bioyond_studio/bioyond_cell/2025092701.xlsx
+++ b/unilabos/devices/workstation/bioyond_studio/bioyond_cell/2025092701.xlsx
@@ -32,7 +32,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
   </numFmts>
   <fonts count="1">
@@ -431,7 +435,7 @@
         <v>电导测试分液瓶数</v>
       </c>
       <c r="J1" t="str">
-        <v>LiPF6(g)</v>
+        <v>LiFSI(g)</v>
       </c>
       <c r="K1" t="str">
         <v>LiDFOB(g)</v>
@@ -505,7 +509,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="str">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H2" t="str">
         <v>0</v>
@@ -514,14 +518,11 @@
         <v>0</v>
       </c>
       <c r="J2" t="str">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K2" t="str">
         <v>0</v>
       </c>
-      <c r="N2" t="str">
-        <v/>
-      </c>
       <c r="O2" t="str">
         <v>0</v>
       </c>
@@ -552,14 +553,11 @@
       <c r="X2" t="str">
         <v>0</v>
       </c>
-      <c r="Y2" t="str">
-        <v>2</v>
-      </c>
       <c r="Z2" t="str">
         <v>0</v>
       </c>
       <c r="AA2" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB2" t="str">
         <v>0</v>

--- a/unilabos/devices/workstation/bioyond_studio/bioyond_cell/2025092701.xlsx
+++ b/unilabos/devices/workstation/bioyond_studio/bioyond_cell/2025092701.xlsx
@@ -1,62 +1,510 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView windowWidth="24980" windowHeight="12080"/>
+  </bookViews>
   <sheets>
     <sheet name="场景1 完成扣电and电导配液，以及部分单独软包配液" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+  <si>
+    <t>算法批次</t>
+  </si>
+  <si>
+    <t>配方ID</t>
+  </si>
+  <si>
+    <t>创建日期</t>
+  </si>
+  <si>
+    <t>配液瓶类型</t>
+  </si>
+  <si>
+    <t>混匀时间(s)</t>
+  </si>
+  <si>
+    <t>扣电组装分液体积</t>
+  </si>
+  <si>
+    <t>软包组装分液体积</t>
+  </si>
+  <si>
+    <t>电导测试分液体积</t>
+  </si>
+  <si>
+    <t>电导测试分液瓶数</t>
+  </si>
+  <si>
+    <t>LiPF6(g)</t>
+  </si>
+  <si>
+    <t>LiDFOB(g)</t>
+  </si>
+  <si>
+    <t>DTD(g)</t>
+  </si>
+  <si>
+    <t>SA(g)</t>
+  </si>
+  <si>
+    <t>LiNO3(g)</t>
+  </si>
+  <si>
+    <t>LiPO2F2(g)</t>
+  </si>
+  <si>
+    <t>EC(g)</t>
+  </si>
+  <si>
+    <t>VC(g)</t>
+  </si>
+  <si>
+    <t>AND(g)</t>
+  </si>
+  <si>
+    <t>HTCN(g)</t>
+  </si>
+  <si>
+    <t>DENE(g)</t>
+  </si>
+  <si>
+    <t>TMSP(g)</t>
+  </si>
+  <si>
+    <t>TMSB(g)</t>
+  </si>
+  <si>
+    <t>EP(g)</t>
+  </si>
+  <si>
+    <t>DEC(g)</t>
+  </si>
+  <si>
+    <t>EMC(g)</t>
+  </si>
+  <si>
+    <t>SN(g)</t>
+  </si>
+  <si>
+    <t>DMC(g)</t>
+  </si>
+  <si>
+    <t>FEC(g)</t>
+  </si>
+  <si>
+    <t>TEST-02</t>
+  </si>
+  <si>
+    <t>DP20250927001</t>
+  </si>
+  <si>
+    <t>9/27/25</t>
+  </si>
+  <si>
+    <t>配液小瓶</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -64,18 +512,312 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -395,177 +1137,182 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="17.6" outlineLevelRow="1"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>算法批次</v>
-      </c>
-      <c r="B1" t="str">
-        <v>配方ID</v>
-      </c>
-      <c r="C1" t="str">
-        <v>创建日期</v>
-      </c>
-      <c r="D1" t="str">
-        <v>配液瓶类型</v>
-      </c>
-      <c r="E1" t="str">
-        <v>混匀时间(s)</v>
-      </c>
-      <c r="F1" t="str">
-        <v>扣电组装分液体积</v>
-      </c>
-      <c r="G1" t="str">
-        <v>软包组装分液体积</v>
-      </c>
-      <c r="H1" t="str">
-        <v>电导测试分液体积</v>
-      </c>
-      <c r="I1" t="str">
-        <v>电导测试分液瓶数</v>
-      </c>
-      <c r="J1" t="str">
-        <v>LiFSI(g)</v>
-      </c>
-      <c r="K1" t="str">
-        <v>LiDFOB(g)</v>
-      </c>
-      <c r="L1" t="str">
-        <v>DTD(g)</v>
-      </c>
-      <c r="M1" t="str">
-        <v>SA(g)</v>
-      </c>
-      <c r="N1" t="str">
-        <v>LiNO3(g)</v>
-      </c>
-      <c r="O1" t="str">
-        <v>LiPO2F2(g)</v>
-      </c>
-      <c r="P1" t="str">
-        <v>EC(g)</v>
-      </c>
-      <c r="Q1" t="str">
-        <v>VC(g)</v>
-      </c>
-      <c r="R1" t="str">
-        <v>AND(g)</v>
-      </c>
-      <c r="S1" t="str">
-        <v>HTCN(g)</v>
-      </c>
-      <c r="T1" t="str">
-        <v>DENE(g)</v>
-      </c>
-      <c r="U1" t="str">
-        <v>TMSP(g)</v>
-      </c>
-      <c r="V1" t="str">
-        <v>TMSB(g)</v>
-      </c>
-      <c r="W1" t="str">
-        <v>EP(g)</v>
-      </c>
-      <c r="X1" t="str">
-        <v>DEC(g)</v>
-      </c>
-      <c r="Y1" t="str">
-        <v>EMC(g)</v>
-      </c>
-      <c r="Z1" t="str">
-        <v>SN(g)</v>
-      </c>
-      <c r="AA1" t="str">
-        <v>DMC(g)</v>
-      </c>
-      <c r="AB1" t="str">
-        <v>FEC(g)</v>
+    <row r="1" spans="1:28">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>TEST-02</v>
-      </c>
-      <c r="B2" t="str">
-        <v>DP20250927001</v>
-      </c>
-      <c r="C2" t="str">
-        <v>9/27/25</v>
-      </c>
-      <c r="D2" t="str">
-        <v>配液小瓶</v>
-      </c>
-      <c r="E2" t="str">
-        <v>10</v>
-      </c>
-      <c r="F2" t="str">
-        <v>1</v>
-      </c>
-      <c r="H2" t="str">
-        <v>0</v>
-      </c>
-      <c r="I2" t="str">
-        <v>0</v>
-      </c>
-      <c r="J2" t="str">
-        <v>0.2</v>
-      </c>
-      <c r="K2" t="str">
-        <v>0</v>
-      </c>
-      <c r="O2" t="str">
-        <v>0</v>
-      </c>
-      <c r="P2" t="str">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="str">
-        <v>0</v>
-      </c>
-      <c r="R2" t="str">
-        <v>0</v>
-      </c>
-      <c r="S2" t="str">
-        <v>0</v>
-      </c>
-      <c r="T2" t="str">
-        <v>0</v>
-      </c>
-      <c r="U2" t="str">
-        <v>0</v>
-      </c>
-      <c r="V2" t="str">
-        <v>0</v>
-      </c>
-      <c r="W2" t="str">
-        <v>0</v>
-      </c>
-      <c r="X2" t="str">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="str">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="str">
-        <v>3</v>
-      </c>
-      <c r="AB2" t="str">
-        <v>0</v>
+    <row r="2" spans="1:28">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AB2"/>
+    <ignoredError sqref="A1:I1 K1:AB1 A2:AB2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/unilabos/devices/workstation/bioyond_studio/bioyond_cell/2025092701.xlsx
+++ b/unilabos/devices/workstation/bioyond_studio/bioyond_cell/2025092701.xlsx
@@ -1,50 +1,187 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\67484\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1BA2BF-7760-496B-8B47-D20B84F44276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-8070" yWindow="880" windowWidth="17570" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="场景1 完成扣电and电导配液，以及部分单独软包配液" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+  <si>
+    <t>算法批次</t>
+  </si>
+  <si>
+    <t>配方ID</t>
+  </si>
+  <si>
+    <t>创建日期</t>
+  </si>
+  <si>
+    <t>配液瓶类型</t>
+  </si>
+  <si>
+    <t>混匀时间(s)</t>
+  </si>
+  <si>
+    <t>扣电组装分液体积</t>
+  </si>
+  <si>
+    <t>软包组装分液体积</t>
+  </si>
+  <si>
+    <t>电导测试分液体积</t>
+  </si>
+  <si>
+    <t>电导测试分液瓶数</t>
+  </si>
+  <si>
+    <t>LiPF6(g)</t>
+  </si>
+  <si>
+    <t>LiDFOB(g)</t>
+  </si>
+  <si>
+    <t>DTD(g)</t>
+  </si>
+  <si>
+    <t>SA(g)</t>
+  </si>
+  <si>
+    <t>LiPO2F2(g)</t>
+  </si>
+  <si>
+    <t>TEST-02</t>
+  </si>
+  <si>
+    <t>DP20250927001</t>
+  </si>
+  <si>
+    <t>9/27/25</t>
+  </si>
+  <si>
+    <t>配液小瓶</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>LiFSI(g)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC(g)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LiTFSI(g)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LiNO3(g)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMC(g)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMC(g)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VC(g)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADN(g)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTCN(g)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DENE(g)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMSP(g)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEC(g)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SN(g)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F2EA(g)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -68,14 +205,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -400,172 +546,177 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="17.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>算法批次</v>
-      </c>
-      <c r="B1" t="str">
-        <v>配方ID</v>
-      </c>
-      <c r="C1" t="str">
-        <v>创建日期</v>
-      </c>
-      <c r="D1" t="str">
-        <v>配液瓶类型</v>
-      </c>
-      <c r="E1" t="str">
-        <v>混匀时间(s)</v>
-      </c>
-      <c r="F1" t="str">
-        <v>扣电组装分液体积</v>
-      </c>
-      <c r="G1" t="str">
-        <v>软包组装分液体积</v>
-      </c>
-      <c r="H1" t="str">
-        <v>电导测试分液体积</v>
-      </c>
-      <c r="I1" t="str">
-        <v>电导测试分液瓶数</v>
-      </c>
-      <c r="J1" t="str">
-        <v>LiFSI(g)</v>
-      </c>
-      <c r="K1" t="str">
-        <v>LiDFOB(g)</v>
-      </c>
-      <c r="L1" t="str">
-        <v>DTD(g)</v>
-      </c>
-      <c r="M1" t="str">
-        <v>SA(g)</v>
-      </c>
-      <c r="N1" t="str">
-        <v>LiNO3(g)</v>
-      </c>
-      <c r="O1" t="str">
-        <v>LiPO2F2(g)</v>
-      </c>
-      <c r="P1" t="str">
-        <v>EC(g)</v>
-      </c>
-      <c r="Q1" t="str">
-        <v>VC(g)</v>
-      </c>
-      <c r="R1" t="str">
-        <v>AND(g)</v>
-      </c>
-      <c r="S1" t="str">
-        <v>HTCN(g)</v>
-      </c>
-      <c r="T1" t="str">
-        <v>DENE(g)</v>
-      </c>
-      <c r="U1" t="str">
-        <v>TMSP(g)</v>
-      </c>
-      <c r="V1" t="str">
-        <v>TMSB(g)</v>
-      </c>
-      <c r="W1" t="str">
-        <v>EP(g)</v>
-      </c>
-      <c r="X1" t="str">
-        <v>DEC(g)</v>
-      </c>
-      <c r="Y1" t="str">
-        <v>EMC(g)</v>
-      </c>
-      <c r="Z1" t="str">
-        <v>SN(g)</v>
-      </c>
-      <c r="AA1" t="str">
-        <v>DMC(g)</v>
-      </c>
-      <c r="AB1" t="str">
-        <v>FEC(g)</v>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>TEST-02</v>
-      </c>
-      <c r="B2" t="str">
-        <v>DP20250927001</v>
-      </c>
-      <c r="C2" t="str">
-        <v>9/27/25</v>
-      </c>
-      <c r="D2" t="str">
-        <v>配液小瓶</v>
-      </c>
-      <c r="E2" t="str">
-        <v>10</v>
-      </c>
-      <c r="F2" t="str">
-        <v>1</v>
-      </c>
-      <c r="H2" t="str">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2">
+        <v>3</v>
+      </c>
+      <c r="S2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA2">
         <v>0</v>
       </c>
-      <c r="I2" t="str">
-        <v>0</v>
-      </c>
-      <c r="J2" t="str">
-        <v>0.2</v>
-      </c>
-      <c r="K2" t="str">
-        <v>0</v>
-      </c>
-      <c r="O2" t="str">
-        <v>0</v>
-      </c>
-      <c r="P2" t="str">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="str">
-        <v>0</v>
-      </c>
-      <c r="R2" t="str">
-        <v>0</v>
-      </c>
-      <c r="S2" t="str">
-        <v>0</v>
-      </c>
-      <c r="T2" t="str">
-        <v>0</v>
-      </c>
-      <c r="U2" t="str">
-        <v>0</v>
-      </c>
-      <c r="V2" t="str">
-        <v>0</v>
-      </c>
-      <c r="W2" t="str">
-        <v>0</v>
-      </c>
-      <c r="X2" t="str">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="str">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="str">
-        <v>3</v>
-      </c>
-      <c r="AB2" t="str">
-        <v>0</v>
+      <c r="AB2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AB2"/>
+    <ignoredError sqref="A2:J2 L2:Q2 A1:I1 AB2 S2:Z2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>